--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3520.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3520.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.524836418933774</v>
+        <v>1.717406511306763</v>
       </c>
       <c r="B1">
-        <v>2.57159699954479</v>
+        <v>2.353511571884155</v>
       </c>
       <c r="C1">
-        <v>3.154481464988546</v>
+        <v>2.047903060913086</v>
       </c>
       <c r="D1">
-        <v>3.637017281684991</v>
+        <v>1.703803777694702</v>
       </c>
       <c r="E1">
-        <v>1.953002861599989</v>
+        <v>1.613725185394287</v>
       </c>
     </row>
   </sheetData>
